--- a/plases.xlsx
+++ b/plases.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -661,10 +661,20 @@
   <dimension ref="A1:I2991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.85546875" customWidth="1" min="2" max="2"/>
+    <col width="27.42578125" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="36.42578125" customWidth="1" min="5" max="5"/>
+    <col width="15.85546875" customWidth="1" min="6" max="6"/>
+    <col width="8.140625" customWidth="1" min="7" max="7"/>
+    <col width="9.5703125" customWidth="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1" ht="38.25" customHeight="1">
       <c r="A1" s="16" t="inlineStr">
@@ -938,7 +948,7 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -970,37 +980,37 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>44.899861, 37.348809</t>
+          <t>44.891737, 37.360189</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Детские</t>
+          <t>Детская</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Открыто до 21:00</t>
+          <t>Закрыто до завтра</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,6</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>450</t>
         </is>
       </c>
       <c r="H8" s="9" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="I8" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1027,37 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.896753, 37.317248</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Цирки</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до завтра</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H9" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I9" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000–1800</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1074,12 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>44.888022, 37.299111</t>
+          <t>44.910648, 37.342142</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Достопримечательности</t>
+          <t>Достопримечательность</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1079,7 +1089,7 @@
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1089,12 +1099,12 @@
       </c>
       <c r="H10" s="9" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="I10" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1168,22 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>44.895584, 37.314710</t>
+          <t>44.926758, 37.343246</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Концертные</t>
+          <t>Концертный</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Открыто до 22:00</t>
+          <t>Закрыто до 09:00</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,7</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1183,12 +1193,12 @@
       </c>
       <c r="H12" s="9" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>700</t>
         </is>
       </c>
       <c r="I12" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1220,22 +1230,22 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10697</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H13" s="9" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="I13" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1267,12 +1277,12 @@
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,4</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H14" s="9" t="inlineStr">
@@ -1282,7 +1292,7 @@
       </c>
       <c r="I14" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1314,22 +1324,22 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2428</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H15" s="9" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>548</t>
         </is>
       </c>
       <c r="I15" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1356,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>44.848129, 37.343609</t>
+          <t>44.869142, 37.358294</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Смотровые</t>
+          <t>Смотровая</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1361,7 +1371,7 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1371,12 +1381,12 @@
       </c>
       <c r="H16" s="9" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="I16" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1393,37 +1403,37 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.885484, 37.443913</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Офис организации</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до завтра</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Ещё</t>
         </is>
       </c>
       <c r="H17" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="I17" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1440,37 +1450,37 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.921763, 37.378148</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Пляж</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 08:00</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H18" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="I18" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1487,37 +1497,37 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.950199, 37.311453</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Пляж</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 06:00</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="H19" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>777</t>
         </is>
       </c>
       <c r="I19" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1581,37 +1591,37 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.899538, 37.317032</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Аквапарки</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 10:00</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H21" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5557</t>
         </is>
       </c>
       <c r="I21" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000–2000</t>
         </is>
       </c>
     </row>
@@ -1628,37 +1638,37 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.950199, 37.315963</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Аквапарк</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 11:00</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8629</t>
         </is>
       </c>
       <c r="H22" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="I22" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1675,22 +1685,22 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>44.897152, 37.308949</t>
+          <t>44.897152, 37.317189</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Спортивные</t>
+          <t>Спортивно-развлекательный центр</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Открыто до 19:00</t>
+          <t>Закрыто до 14:00</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,6</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1700,12 +1710,12 @@
       </c>
       <c r="H23" s="9" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I23" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1732,37 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.950199, 37.315963</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Парк аттракционов</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 10:00</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5683</t>
         </is>
       </c>
       <c r="H24" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="I24" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1779,27 +1789,27 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Открыто до 23:30</t>
+          <t>Закрыто до 11:00</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9196</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H25" s="9" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="I25" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1826,27 +1836,27 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Открыто до 19:00</t>
+          <t>Закрыто до 09:00</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17169</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H26" s="9" t="inlineStr">
         <is>
-          <t>6351</t>
+          <t>6353</t>
         </is>
       </c>
       <c r="I26" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -1873,22 +1883,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Открыто до 23:00</t>
+          <t>Закрыто до 09:00</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,4</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H27" s="9" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>802</t>
         </is>
       </c>
       <c r="I27" s="10" t="inlineStr">
@@ -1910,37 +1920,37 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.888273, 37.300254</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Океанариумы</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 10:00</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H28" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>256</t>
         </is>
       </c>
       <c r="I28" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300–350</t>
         </is>
       </c>
     </row>
@@ -1957,37 +1967,37 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.761154, 37.389532</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Дельфинарий</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 10:00</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="H29" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="I29" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2009,32 +2019,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Музеи</t>
+          <t>Музей</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Закрыто до завтра</t>
+          <t>Закрыто до 10:00</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,3</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>499</t>
         </is>
       </c>
       <c r="H30" s="9" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>235</t>
         </is>
       </c>
       <c r="I30" s="10" t="inlineStr">
         <is>
-          <t>историко-бытовой,</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2076,22 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,9</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H31" s="9" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>993</t>
         </is>
       </c>
       <c r="I31" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2098,37 +2108,37 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.759497, 37.385322</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Музеи</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 09:00</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H32" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>280</t>
         </is>
       </c>
       <c r="I32" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>150–900</t>
         </is>
       </c>
     </row>
@@ -2145,37 +2155,37 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.896211, 37.313643</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Парки</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Круглосуточно</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H33" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="I33" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2202,12 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>44.889445, 37.303911</t>
+          <t>44.889028, 37.305279</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Парк</t>
+          <t>Парк культуры и отдыха</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -2212,17 +2222,17 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Не удалось извлечь оценки</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="H34" s="9" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>706</t>
         </is>
       </c>
       <c r="I34" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2254,22 +2264,22 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,7</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7472</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H35" s="9" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="I35" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2306,17 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Закрыто до завтра</t>
+          <t>Закрыто до 08:00</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H36" s="9" t="inlineStr">
@@ -2316,7 +2326,7 @@
       </c>
       <c r="I36" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2343,27 +2353,27 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Закрыто до завтра</t>
+          <t>Закрыто до 08:00</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H37" s="9" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>293</t>
         </is>
       </c>
       <c r="I37" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2405,7 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -2405,12 +2415,12 @@
       </c>
       <c r="H38" s="9" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="I38" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2442,22 +2452,22 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>10570</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H39" s="9" t="inlineStr">
         <is>
-          <t>2776</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="I39" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2484,12 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>44.846581, 37.375751</t>
+          <t>44.951835, 37.523430</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровая скульптура</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -2489,22 +2499,22 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>2267</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="H40" s="9" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>673</t>
         </is>
       </c>
       <c r="I40" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2546,12 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H41" s="9" t="inlineStr">
@@ -2551,7 +2561,7 @@
       </c>
       <c r="I41" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2568,12 +2578,12 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>44.895816, 37.312091</t>
+          <t>44.921751, 37.378135</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровая скульптура</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -2583,7 +2593,7 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,5</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -2598,7 +2608,7 @@
       </c>
       <c r="I42" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2630,12 +2640,12 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H43" s="9" t="inlineStr">
@@ -2645,7 +2655,7 @@
       </c>
       <c r="I43" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2756,37 +2766,37 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.883431, 37.334363</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Декоративный объект, доска почёта</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до завтра</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="H46" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I46" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2803,37 +2813,37 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.812149, 37.611107</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Театр</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до 10:00</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(2335)</t>
         </is>
       </c>
       <c r="H47" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(1180)</t>
         </is>
       </c>
       <c r="I47" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>театр</t>
         </is>
       </c>
     </row>
@@ -2897,37 +2907,37 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.904047, 37.329318</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Заповедники</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Закрыто до завтра</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H49" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I49" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -2944,37 +2954,37 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.914649, 37.588395</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Зоопарки</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Понедельник09:00 – 19:00Вторник09:00 – 19:00Среда09:00 – 19:00Четверг09:00 – 19:00Пятница09:00 – 19:00Суббота09:00 – 19:00Воскресенье09:00 – 19:00</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="H50" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="I50" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350–800</t>
         </is>
       </c>
     </row>
@@ -2991,12 +3001,12 @@
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>44.931155, 37.329314</t>
+          <t>44.936845, 37.445409</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Памятник,</t>
+          <t>Памятник, мемориал</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
@@ -3011,7 +3021,7 @@
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Ещё</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H51" s="9" t="inlineStr">
@@ -3021,7 +3031,7 @@
       </c>
       <c r="I51" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3038,37 +3048,37 @@
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.895697, 37.315747</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Жанровая скульптура</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="H52" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I52" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3085,37 +3095,37 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.921751, 37.379491</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Памятник, мемориал</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H53" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I53" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3132,37 +3142,37 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.921751, 37.378135</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Памятник, мемориал</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H54" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I54" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3194,7 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровые скульптуры</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -3194,12 +3204,12 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг5,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="H55" s="9" t="inlineStr">
@@ -3209,7 +3219,7 @@
       </c>
       <c r="I55" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3241,7 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровые скульптуры</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -3241,22 +3251,22 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,8</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H56" s="9" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="I56" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3273,12 +3283,12 @@
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>44.889295, 37.232384</t>
+          <t>44.889295, 37.548125</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Памятник,</t>
+          <t>Памятник, мемориал</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -3293,7 +3303,7 @@
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Ещё</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H57" s="9" t="inlineStr">
@@ -3303,7 +3313,7 @@
       </c>
       <c r="I57" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3335,7 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Памятники,</t>
+          <t>Памятники, мемориалы</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
@@ -3335,22 +3345,22 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,1</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
+          <t>Значение не найдено</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="H58" s="9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="I58" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3367,37 +3377,37 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.895746, 37.313625</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Памятник, мемориал</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H59" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I59" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3429,7 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Памятники</t>
+          <t>Памятники технике</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
@@ -3429,12 +3439,12 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг3,9</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H60" s="9" t="inlineStr">
@@ -3444,7 +3454,7 @@
       </c>
       <c r="I60" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3461,37 +3471,37 @@
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.921751, 37.374024</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Жанровая скульптура</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H61" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I61" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3523,7 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровые скульптуры</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
@@ -3523,22 +3533,22 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,9</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H62" s="9" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I62" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3570,7 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровые скульптуры</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
@@ -3570,12 +3580,12 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,2</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H63" s="9" t="inlineStr">
@@ -3585,7 +3595,7 @@
       </c>
       <c r="I63" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3602,37 +3612,37 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.921751, 37.378135</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Жанровая скульптура</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H64" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I64" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3664,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Жанровые</t>
+          <t>Жанровые скульптуры</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
@@ -3664,12 +3674,12 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Рейтинг4,4</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
       <c r="H65" s="9" t="inlineStr">
@@ -3679,7 +3689,7 @@
       </c>
       <c r="I65" s="10" t="inlineStr">
         <is>
-          <t>Не указана</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
@@ -3696,37 +3706,37 @@
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.921751, 37.378135</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Жанровая скульптура</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>График работы не указан</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H66" s="9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I66" s="10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Значение не найдено</t>
         </is>
       </c>
     </row>
